--- a/experimental_results/ordering_NW.xlsx
+++ b/experimental_results/ordering_NW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\Uni\Master\Masterarbeit\tum-thesis-latex\experimental_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAB9577-0A6E-46F6-841A-E3189FC48144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F442373B-682F-4A33-8DF5-10F14442E5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9304CC2E-D6E2-4A2B-A955-426B40F1FB42}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="313">
   <si>
     <t>trindade16</t>
   </si>
@@ -570,6 +570,411 @@
   </si>
   <si>
     <t>2.34314</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>365 x 819 = 298935</t>
+  </si>
+  <si>
+    <t>10300</t>
+  </si>
+  <si>
+    <t>101085</t>
+  </si>
+  <si>
+    <t>342 x 763 = 260946</t>
+  </si>
+  <si>
+    <t>9319</t>
+  </si>
+  <si>
+    <t>99799</t>
+  </si>
+  <si>
+    <t>1.92295</t>
+  </si>
+  <si>
+    <t>1.90016</t>
+  </si>
+  <si>
+    <t>1738</t>
+  </si>
+  <si>
+    <t>2748</t>
+  </si>
+  <si>
+    <t>1949 x 820 = 1598180</t>
+  </si>
+  <si>
+    <t>39534</t>
+  </si>
+  <si>
+    <t>440620</t>
+  </si>
+  <si>
+    <t>11.9421</t>
+  </si>
+  <si>
+    <t>EPFL</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>int2float</t>
+  </si>
+  <si>
+    <t>router</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>cavlc</t>
+  </si>
+  <si>
+    <t>adder</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>7/27</t>
+  </si>
+  <si>
+    <t>11/7</t>
+  </si>
+  <si>
+    <t>60/3</t>
+  </si>
+  <si>
+    <t>8/256</t>
+  </si>
+  <si>
+    <t>10/11</t>
+  </si>
+  <si>
+    <t>256/129</t>
+  </si>
+  <si>
+    <t>128/8</t>
+  </si>
+  <si>
+    <t>20.1534</t>
+  </si>
+  <si>
+    <t>2162</t>
+  </si>
+  <si>
+    <t>3055</t>
+  </si>
+  <si>
+    <t>899 x 2668 = 2398532</t>
+  </si>
+  <si>
+    <t>82809</t>
+  </si>
+  <si>
+    <t>859067</t>
+  </si>
+  <si>
+    <t>12.2977</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>2761</t>
+  </si>
+  <si>
+    <t>593235</t>
+  </si>
+  <si>
+    <t>813 x 1990 = 1617870</t>
+  </si>
+  <si>
+    <t>41365</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>27.5328</t>
+  </si>
+  <si>
+    <t>2174</t>
+  </si>
+  <si>
+    <t>3507</t>
+  </si>
+  <si>
+    <t>1221 x 2469 = 3014649</t>
+  </si>
+  <si>
+    <t>84432</t>
+  </si>
+  <si>
+    <t>1020260</t>
+  </si>
+  <si>
+    <t>128.787</t>
+  </si>
+  <si>
+    <t>5263</t>
+  </si>
+  <si>
+    <t>8592</t>
+  </si>
+  <si>
+    <t>2438 x 6189 = 15088782</t>
+  </si>
+  <si>
+    <t>283554</t>
+  </si>
+  <si>
+    <t>3484387</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>136/127</t>
+  </si>
+  <si>
+    <t>135/128</t>
+  </si>
+  <si>
+    <t>512/130</t>
+  </si>
+  <si>
+    <t>142.194</t>
+  </si>
+  <si>
+    <t>2506 x 6158 = 15431948</t>
+  </si>
+  <si>
+    <t>5383</t>
+  </si>
+  <si>
+    <t>7866</t>
+  </si>
+  <si>
+    <t>360324</t>
+  </si>
+  <si>
+    <t>5289167</t>
+  </si>
+  <si>
+    <t>23703</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>161 x 344 = 55384</t>
+  </si>
+  <si>
+    <t>2497</t>
+  </si>
+  <si>
+    <t>1.0468</t>
+  </si>
+  <si>
+    <t>437</t>
+  </si>
+  <si>
+    <t>693</t>
+  </si>
+  <si>
+    <t>222 x 480 = 106560</t>
+  </si>
+  <si>
+    <t>5319</t>
+  </si>
+  <si>
+    <t>47421</t>
+  </si>
+  <si>
+    <t>1.15991</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>240 x 502 = 120480</t>
+  </si>
+  <si>
+    <t>5699</t>
+  </si>
+  <si>
+    <t>56821</t>
+  </si>
+  <si>
+    <t>3.04237</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>410 x 471 = 193110</t>
+  </si>
+  <si>
+    <t>101910</t>
+  </si>
+  <si>
+    <t>7166</t>
+  </si>
+  <si>
+    <t>5.60502</t>
+  </si>
+  <si>
+    <t>279467</t>
+  </si>
+  <si>
+    <t>1279</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>568 x 1393 = 791224</t>
+  </si>
+  <si>
+    <t>28325</t>
+  </si>
+  <si>
+    <t>25240</t>
+  </si>
+  <si>
+    <t>185 x 252 = 65305</t>
+  </si>
+  <si>
+    <t>2690</t>
+  </si>
+  <si>
+    <t>1.66979</t>
+  </si>
+  <si>
+    <t>5533</t>
+  </si>
+  <si>
+    <t>228 x 495 = 112860</t>
+  </si>
+  <si>
+    <t>112860</t>
+  </si>
+  <si>
+    <t>1.30327</t>
+  </si>
+  <si>
+    <t>234 x 549 = 128466</t>
+  </si>
+  <si>
+    <t>7873</t>
+  </si>
+  <si>
+    <t>51370</t>
+  </si>
+  <si>
+    <t>3.73323</t>
+  </si>
+  <si>
+    <t>665 x 472 = 313880</t>
+  </si>
+  <si>
+    <t>7161</t>
+  </si>
+  <si>
+    <t>159743</t>
+  </si>
+  <si>
+    <t>5.79498</t>
+  </si>
+  <si>
+    <t>578 x 1428 = 825384</t>
+  </si>
+  <si>
+    <t>28690</t>
+  </si>
+  <si>
+    <t>284337</t>
+  </si>
+  <si>
+    <t>15.2281</t>
+  </si>
+  <si>
+    <t>1027 x 2670 = 2742090</t>
+  </si>
+  <si>
+    <t>83063</t>
+  </si>
+  <si>
+    <t>693203</t>
+  </si>
+  <si>
+    <t>12.1719</t>
+  </si>
+  <si>
+    <t>815 x 2211 = 1801965</t>
+  </si>
+  <si>
+    <t>60749</t>
+  </si>
+  <si>
+    <t>585776</t>
+  </si>
+  <si>
+    <t>i2c</t>
+  </si>
+  <si>
+    <t>33.1603</t>
+  </si>
+  <si>
+    <t>1329 x 2576 = 3423504</t>
+  </si>
+  <si>
+    <t>92862</t>
+  </si>
+  <si>
+    <t>998017</t>
+  </si>
+  <si>
+    <t>83.1199</t>
+  </si>
+  <si>
+    <t>2565 x 6426 = 16482690</t>
+  </si>
+  <si>
+    <t>306390</t>
+  </si>
+  <si>
+    <t>3515968</t>
+  </si>
+  <si>
+    <t>136.488</t>
+  </si>
+  <si>
+    <t>2606 x 6415 = 16717490</t>
+  </si>
+  <si>
+    <t>544606</t>
+  </si>
+  <si>
+    <t>5028437</t>
   </si>
 </sst>
 </file>
@@ -946,10 +1351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFE01C0-87DF-4CA1-B833-0C5585900ECA}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,9 +1364,9 @@
     <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="1" customWidth="1"/>
     <col min="7" max="11" width="11.42578125" style="1"/>
-    <col min="12" max="12" width="20.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
     <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -1650,7 +2056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>118</v>
       </c>
@@ -1694,7 +2100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>119</v>
       </c>
@@ -1738,7 +2144,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>120</v>
       </c>
@@ -1782,7 +2188,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>121</v>
       </c>
@@ -1826,15 +2232,51 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>123</v>
       </c>
@@ -1842,15 +2284,33 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>125</v>
       </c>
@@ -1858,7 +2318,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>126</v>
       </c>
@@ -1866,12 +2326,455 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/experimental_results/ordering_NW.xlsx
+++ b/experimental_results/ordering_NW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Documents\Uni\Master\Masterarbeit\tum-thesis-latex\experimental_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F442373B-682F-4A33-8DF5-10F14442E5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C57E50-5E6A-4ACA-9D04-F4E785067404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9304CC2E-D6E2-4A2B-A955-426B40F1FB42}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="359">
   <si>
     <t>trindade16</t>
   </si>
@@ -617,9 +617,6 @@
     <t>440620</t>
   </si>
   <si>
-    <t>11.9421</t>
-  </si>
-  <si>
     <t>EPFL</t>
   </si>
   <si>
@@ -975,6 +972,147 @@
   </si>
   <si>
     <t>5028437</t>
+  </si>
+  <si>
+    <t>9.39158</t>
+  </si>
+  <si>
+    <t>705176</t>
+  </si>
+  <si>
+    <t>25.857</t>
+  </si>
+  <si>
+    <t>6963</t>
+  </si>
+  <si>
+    <t>34994</t>
+  </si>
+  <si>
+    <t>1330 x 5713 = 7598290</t>
+  </si>
+  <si>
+    <t>6.42365</t>
+  </si>
+  <si>
+    <t>604 x 1497 = 904188</t>
+  </si>
+  <si>
+    <t>25247</t>
+  </si>
+  <si>
+    <t>304793</t>
+  </si>
+  <si>
+    <t>60.4846</t>
+  </si>
+  <si>
+    <t>1577735</t>
+  </si>
+  <si>
+    <t>2905</t>
+  </si>
+  <si>
+    <t>4615</t>
+  </si>
+  <si>
+    <t>1509 x 3267 = 4929903</t>
+  </si>
+  <si>
+    <t>96594</t>
+  </si>
+  <si>
+    <t>47.9815</t>
+  </si>
+  <si>
+    <t>2234848</t>
+  </si>
+  <si>
+    <t>3679</t>
+  </si>
+  <si>
+    <t>5654</t>
+  </si>
+  <si>
+    <t>1599 x 4148 = 6632652</t>
+  </si>
+  <si>
+    <t>165626</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>1827</t>
+  </si>
+  <si>
+    <t>4626</t>
+  </si>
+  <si>
+    <t>1217</t>
+  </si>
+  <si>
+    <t>1840</t>
+  </si>
+  <si>
+    <t>7.19294</t>
+  </si>
+  <si>
+    <t>308518</t>
+  </si>
+  <si>
+    <t>29792</t>
+  </si>
+  <si>
+    <t>664 x 1580 = 1049120</t>
+  </si>
+  <si>
+    <t>9.70956</t>
+  </si>
+  <si>
+    <t>433132</t>
+  </si>
+  <si>
+    <t>840 x 2028 1703520</t>
+  </si>
+  <si>
+    <t>41794</t>
+  </si>
+  <si>
+    <t>34.5031</t>
+  </si>
+  <si>
+    <t>1551411</t>
+  </si>
+  <si>
+    <t>122373</t>
+  </si>
+  <si>
+    <t>1616 x 3436 = 5552576</t>
+  </si>
+  <si>
+    <t>1361 x 5715 = 7778115</t>
+  </si>
+  <si>
+    <t>31535</t>
+  </si>
+  <si>
+    <t>629779</t>
+  </si>
+  <si>
+    <t>24.7287</t>
+  </si>
+  <si>
+    <t>1710 x 4318 = 7491510</t>
+  </si>
+  <si>
+    <t>56.0189</t>
+  </si>
+  <si>
+    <t>2312386</t>
+  </si>
+  <si>
+    <t>200597</t>
   </si>
 </sst>
 </file>
@@ -1354,23 +1492,23 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="1"/>
+    <col min="2" max="2" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="22.85546875" style="1" customWidth="1"/>
-    <col min="7" max="11" width="11.42578125" style="1"/>
-    <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="5" width="11.44140625" style="1"/>
+    <col min="6" max="6" width="22.88671875" style="1" customWidth="1"/>
+    <col min="7" max="11" width="11.44140625" style="1"/>
+    <col min="12" max="12" width="22.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1387,7 +1525,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1431,7 +1569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1522,7 +1660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1566,7 +1704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1610,7 +1748,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1654,7 +1792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1698,7 +1836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>58</v>
       </c>
@@ -1745,7 +1883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
@@ -1789,7 +1927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
@@ -1833,7 +1971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
@@ -1877,7 +2015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1921,7 +2059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
@@ -1965,7 +2103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
@@ -2009,7 +2147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>116</v>
       </c>
@@ -2056,7 +2194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>118</v>
       </c>
@@ -2100,7 +2238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>119</v>
       </c>
@@ -2144,7 +2282,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>120</v>
       </c>
@@ -2188,7 +2326,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>121</v>
       </c>
@@ -2232,7 +2370,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>122</v>
       </c>
@@ -2276,21 +2414,75 @@
         <v>186</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>133</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="J23" s="1" t="s">
         <v>188</v>
       </c>
@@ -2307,474 +2499,582 @@
         <v>192</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="M27" s="1" t="s">
+      <c r="J28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="O28" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="N28" s="1" t="s">
+      <c r="J29" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="N29" s="1" t="s">
+      <c r="J30" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="M30" s="1" t="s">
+      <c r="J31" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="J32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N32" s="1" t="s">
+      <c r="J33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="H33" s="1" t="s">
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="M33" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="N34" s="1" t="s">
+      <c r="J35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O35" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="O34" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="J36" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="O36" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>
